--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Dir</t>
   </si>
   <si>
-    <t>TID</t>
+    <t>UnitID</t>
   </si>
   <si>
     <t>Level</t>
@@ -61,25 +61,13 @@
     <t>刷怪周期（秒）</t>
   </si>
   <si>
-    <t>[268989,4996,322212]</t>
+    <t>[-27,-4,36]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
   </si>
   <si>
-    <t>[268789,4996,324212]</t>
-  </si>
-  <si>
-    <t>[268989,4996,326212]</t>
-  </si>
-  <si>
-    <t>[279835,5844,321371]</t>
-  </si>
-  <si>
-    <t>[275602,5859,316978]</t>
-  </si>
-  <si>
-    <t>[285680,5963,320158]</t>
+    <t>[-30,-4,34]</t>
   </si>
 </sst>
 </file>
@@ -92,7 +80,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +90,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -260,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +317,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,48 +553,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,97 +607,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,17 +1028,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.2333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.5166666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="3" customWidth="1"/>
@@ -1144,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1153,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1167,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -1176,105 +1151,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="G5" s="3">
         <v>60</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="F6" s="3">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1002</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1002</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1002</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -61,13 +61,13 @@
     <t>刷怪周期（秒）</t>
   </si>
   <si>
-    <t>[-27,-4,36]</t>
+    <t>[-27,-3,36]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
   </si>
   <si>
-    <t>[-30,-4,34]</t>
+    <t>[-30,-3,34]</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -61,13 +61,10 @@
     <t>刷怪周期（秒）</t>
   </si>
   <si>
-    <t>[-27,-3,36]</t>
+    <t>[0,4,0]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
-  </si>
-  <si>
-    <t>[-30,-3,34]</t>
   </si>
 </sst>
 </file>
@@ -1028,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.2333333333333" style="3" customWidth="1"/>
@@ -1116,7 +1113,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1131,32 +1128,9 @@
         <v>1005</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1005</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
         <v>60</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22480" windowHeight="9690"/>
+    <workbookView windowWidth="22700" windowHeight="6640"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>[5,4,0]</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.2333333333333" style="3" customWidth="1"/>
@@ -1113,7 +1116,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1132,6 +1135,29 @@
       </c>
       <c r="G4" s="3">
         <v>60</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>[0,0,0]</t>
-  </si>
-  <si>
-    <t>[5,4,0]</t>
   </si>
 </sst>
 </file>
@@ -1028,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.2333333333333" style="3" customWidth="1"/>
@@ -1137,29 +1134,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2001</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -58,13 +58,16 @@
     <t>单位等级</t>
   </si>
   <si>
-    <t>刷怪周期（秒）</t>
+    <t>刷新周期（秒）</t>
   </si>
   <si>
     <t>[0,4,0]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>[5,4,0]</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.2333333333333" style="3" customWidth="1"/>
@@ -1134,6 +1137,29 @@
         <v>60</v>
       </c>
     </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6640"/>
+    <workbookView windowWidth="22920" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="25600" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +78,21 @@
   </si>
   <si>
     <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>[1,4,0]</t>
+  </si>
+  <si>
+    <t>[0,4,1]</t>
+  </si>
+  <si>
+    <t>[1,4,1]</t>
+  </si>
+  <si>
+    <t>[0,4,2]</t>
+  </si>
+  <si>
+    <t>[2,4,1]</t>
   </si>
   <si>
     <t>[5,4,0]</t>
@@ -73,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -97,34 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -138,14 +138,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,6 +182,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -235,7 +242,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,49 +284,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,97 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,21 +477,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +510,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,148 +581,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,52 +740,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1028,13 +1056,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.2333333333333" style="3" customWidth="1"/>
@@ -1134,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1151,12 +1179,127 @@
         <v>16</v>
       </c>
       <c r="E5" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3">
         <v>2001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G10" s="3">
         <v>99999</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
@@ -1159,7 +1159,7 @@
         <v>1005</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
@@ -1182,7 +1182,7 @@
         <v>1005</v>
       </c>
       <c r="F5" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -1228,7 +1228,7 @@
         <v>1005</v>
       </c>
       <c r="F7" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
@@ -1251,7 +1251,7 @@
         <v>1005</v>
       </c>
       <c r="F8" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790"/>
+    <workbookView windowWidth="22920" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -101,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -125,6 +112,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -138,6 +153,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,14 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +221,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -213,21 +236,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -242,28 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +271,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,24 +337,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,18 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,36 +391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -416,19 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +464,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,21 +512,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,148 +568,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -740,52 +727,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1059,7 +1046,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
@@ -1185,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
@@ -1208,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -1231,7 +1218,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -1254,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="3">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
@@ -1277,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Period</t>
   </si>
   <si>
+    <t>killRewardList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -61,10 +64,16 @@
     <t>刷新周期（秒）</t>
   </si>
   <si>
+    <t>击杀奖励</t>
+  </si>
+  <si>
     <t>[0,4,0]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>[1]</t>
   </si>
   <si>
     <t>[1,4,0]</t>
@@ -1043,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.2333333333333" style="3" customWidth="1"/>
@@ -1057,10 +1066,11 @@
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="26.95" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,54 +1092,63 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1137,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3">
         <v>1005</v>
@@ -1150,6 +1169,9 @@
       </c>
       <c r="G4" s="3">
         <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1160,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3">
         <v>1005</v>
@@ -1183,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="3">
         <v>1005</v>
@@ -1206,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3">
         <v>1005</v>
@@ -1229,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3">
         <v>1005</v>
@@ -1252,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3">
         <v>1005</v>
@@ -1275,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3">
         <v>2001</v>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -73,7 +73,7 @@
     <t>[0,0,0]</t>
   </si>
   <si>
-    <t>[1]</t>
+    <t>[1,2]</t>
   </si>
   <si>
     <t>[1,4,0]</t>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>19</v>
@@ -1194,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
@@ -1217,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3">
-        <v>999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -1240,7 +1240,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="3">
-        <v>999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -1263,7 +1263,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="3">
-        <v>999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
@@ -1286,7 +1286,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="3">
-        <v>999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="19720" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>[0,0,0]</t>
   </si>
   <si>
-    <t>[1,2]</t>
+    <t>[1]</t>
   </si>
   <si>
     <t>[1,4,0]</t>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19720" windowHeight="7190"/>
+    <workbookView windowWidth="25190" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -40,12 +40,24 @@
     <t>killRewardList</t>
   </si>
   <si>
+    <t>WalkRange</t>
+  </si>
+  <si>
+    <t>ChaseRange</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>地图ID</t>
   </si>
   <si>
@@ -65,6 +77,15 @@
   </si>
   <si>
     <t>击杀奖励</t>
+  </si>
+  <si>
+    <t>巡逻范围</t>
+  </si>
+  <si>
+    <t>追击范围</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
   </si>
   <si>
     <t>[0,4,0]</t>
@@ -1052,13 +1073,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.2333333333333" style="3" customWidth="1"/>
@@ -1067,10 +1088,13 @@
     <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.95" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="16.7416666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.575" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.025" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,60 +1119,87 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1156,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3">
         <v>1005</v>
@@ -1171,10 +1222,19 @@
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1182,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
         <v>1005</v>
@@ -1196,8 +1256,17 @@
       <c r="G5" s="3">
         <v>10</v>
       </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1205,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3">
         <v>1005</v>
@@ -1219,8 +1288,17 @@
       <c r="G6" s="3">
         <v>10</v>
       </c>
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1228,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>1005</v>
@@ -1242,8 +1320,17 @@
       <c r="G7" s="3">
         <v>10</v>
       </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1251,10 +1338,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3">
         <v>1005</v>
@@ -1265,8 +1352,17 @@
       <c r="G8" s="3">
         <v>10</v>
       </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1274,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3">
         <v>1005</v>
@@ -1288,8 +1384,17 @@
       <c r="G9" s="3">
         <v>10</v>
       </c>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1297,19 +1402,60 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:11">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
         <v>2001</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>99999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25190" windowHeight="7190"/>
+    <workbookView windowWidth="25600" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +123,9 @@
   </si>
   <si>
     <t>[2,4,1]</t>
+  </si>
+  <si>
+    <t>[2,4,3]</t>
   </si>
   <si>
     <t>[5,4,0]</t>
@@ -118,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -142,55 +158,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +215,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -280,7 +275,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,49 +317,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,97 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,21 +510,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +543,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,148 +614,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,52 +773,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1073,10 +1089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1251,7 +1267,7 @@
         <v>1005</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3">
         <v>10</v>
@@ -1283,7 +1299,7 @@
         <v>1005</v>
       </c>
       <c r="F6" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>10</v>
@@ -1315,7 +1331,7 @@
         <v>1005</v>
       </c>
       <c r="F7" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3">
         <v>10</v>
@@ -1347,7 +1363,7 @@
         <v>1005</v>
       </c>
       <c r="F8" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3">
         <v>10</v>
@@ -1379,7 +1395,7 @@
         <v>1005</v>
       </c>
       <c r="F9" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G9" s="3">
         <v>10</v>
@@ -1408,10 +1424,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="3">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -1440,21 +1456,53 @@
         <v>25</v>
       </c>
       <c r="E11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:11">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
         <v>2001</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>99999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="3">
         <v>0</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790"/>
+    <workbookView windowWidth="20330" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -101,7 +88,7 @@
     <t>攻击范围</t>
   </si>
   <si>
-    <t>[0,4,0]</t>
+    <t>[2,-3,51]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
@@ -110,31 +97,25 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>[1,4,0]</t>
-  </si>
-  <si>
-    <t>[0,4,1]</t>
-  </si>
-  <si>
-    <t>[1,4,1]</t>
-  </si>
-  <si>
-    <t>[0,4,2]</t>
-  </si>
-  <si>
-    <t>[2,4,1]</t>
-  </si>
-  <si>
-    <t>[2,4,3]</t>
-  </si>
-  <si>
-    <t>[5,4,0]</t>
+    <t>[-53,-4,42]</t>
+  </si>
+  <si>
+    <t>[-83,-4,40]</t>
+  </si>
+  <si>
+    <t>[-7,6,-58]</t>
+  </si>
+  <si>
+    <t>[-36,8,-86]</t>
+  </si>
+  <si>
+    <t>[38,2,-31]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -158,6 +139,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -171,6 +180,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,21 +227,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,28 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +298,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,24 +364,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,18 +406,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,36 +418,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,19 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +491,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,21 +539,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,148 +595,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,52 +754,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1089,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1241,13 +1222,13 @@
         <v>26</v>
       </c>
       <c r="I4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -1258,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>25</v>
@@ -1267,16 +1248,17 @@
         <v>1005</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>10</v>
       </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -1290,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>25</v>
@@ -1299,16 +1281,17 @@
         <v>1005</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
@@ -1322,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>25</v>
@@ -1331,16 +1314,17 @@
         <v>1005</v>
       </c>
       <c r="F7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -1354,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
@@ -1366,13 +1350,13 @@
         <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>
@@ -1380,13 +1364,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
@@ -1398,13 +1382,14 @@
         <v>6</v>
       </c>
       <c r="G9" s="3">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -1412,98 +1397,610 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F10" s="3">
         <v>7</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I10" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1007</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10</v>
-      </c>
       <c r="G11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I11" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2001</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
       <c r="G12" s="3">
-        <v>99999</v>
+        <v>30</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:11">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:11">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:11">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>30</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:11">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:11">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F19" s="3">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:11">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>30</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:11">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F21" s="3">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>30</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:11">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:11">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F23" s="3">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:11">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:11">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F25" s="3">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3">
+        <v>40</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:11">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F26" s="3">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3">
+        <v>40</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:11">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F27" s="3">
+        <v>28</v>
+      </c>
+      <c r="G27" s="3">
+        <v>40</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:11">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F28" s="3">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3">
+        <v>40</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -88,7 +88,7 @@
     <t>攻击范围</t>
   </si>
   <si>
-    <t>[2,-3,51]</t>
+    <t>[31,0,64]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
@@ -97,19 +97,28 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>[-53,-4,42]</t>
-  </si>
-  <si>
-    <t>[-83,-4,40]</t>
-  </si>
-  <si>
-    <t>[-7,6,-58]</t>
-  </si>
-  <si>
-    <t>[-36,8,-86]</t>
-  </si>
-  <si>
-    <t>[38,2,-31]</t>
+    <t>[28,0,-10]</t>
+  </si>
+  <si>
+    <t>[100,0,20]</t>
+  </si>
+  <si>
+    <t>[105,0,20]</t>
+  </si>
+  <si>
+    <t>[107,0,17]</t>
+  </si>
+  <si>
+    <t>[88,0,-73]</t>
+  </si>
+  <si>
+    <t>[81,0,-100]</t>
+  </si>
+  <si>
+    <t>[-67,0,-44]</t>
+  </si>
+  <si>
+    <t>[-80,0,-40]</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1222,10 +1231,10 @@
         <v>26</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -1255,10 +1264,10 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -1288,10 +1297,10 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
@@ -1321,10 +1330,10 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -1353,10 +1362,10 @@
         <v>20</v>
       </c>
       <c r="I8" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>
@@ -1364,7 +1373,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1386,10 +1395,10 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -1397,7 +1406,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -1418,10 +1427,10 @@
         <v>20</v>
       </c>
       <c r="I10" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
@@ -1429,7 +1438,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1450,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="I11" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
@@ -1461,7 +1470,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -1473,7 +1482,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F12" s="3">
         <v>9</v>
@@ -1482,10 +1491,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
@@ -1493,7 +1502,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1505,7 +1514,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F13" s="3">
         <v>10</v>
@@ -1514,10 +1523,10 @@
         <v>30</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -1525,7 +1534,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1546,10 +1555,10 @@
         <v>30</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -1557,7 +1566,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1578,10 +1587,10 @@
         <v>30</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -1589,7 +1598,7 @@
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:11">
       <c r="A16" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -1601,7 +1610,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F16" s="3">
         <v>15</v>
@@ -1610,10 +1619,10 @@
         <v>30</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -1621,7 +1630,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1633,7 +1642,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F17" s="3">
         <v>16</v>
@@ -1642,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1653,31 +1662,31 @@
     </row>
     <row r="18" customHeight="1" spans="1:11">
       <c r="A18" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F18" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3">
         <v>30</v>
       </c>
       <c r="I18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -1685,13 +1694,13 @@
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -1706,10 +1715,10 @@
         <v>30</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -1717,13 +1726,13 @@
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:11">
       <c r="A20" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>25</v>
@@ -1738,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="I20" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -1749,13 +1758,13 @@
     </row>
     <row r="21" customHeight="1" spans="1:11">
       <c r="A21" s="3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
@@ -1770,10 +1779,10 @@
         <v>30</v>
       </c>
       <c r="I21" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J21" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -1781,19 +1790,19 @@
     </row>
     <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="3">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F22" s="3">
         <v>16</v>
@@ -1802,10 +1811,10 @@
         <v>30</v>
       </c>
       <c r="I22" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J22" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
@@ -1813,19 +1822,19 @@
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="3">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F23" s="3">
         <v>18</v>
@@ -1834,10 +1843,10 @@
         <v>30</v>
       </c>
       <c r="I23" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J23" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
@@ -1845,19 +1854,19 @@
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="3">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F24" s="3">
         <v>20</v>
@@ -1866,10 +1875,10 @@
         <v>40</v>
       </c>
       <c r="I24" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J24" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K24" s="3">
         <v>2</v>
@@ -1877,19 +1886,19 @@
     </row>
     <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="3">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F25" s="3">
         <v>22</v>
@@ -1898,10 +1907,10 @@
         <v>40</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J25" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K25" s="3">
         <v>2</v>
@@ -1909,13 +1918,13 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>25</v>
@@ -1930,10 +1939,10 @@
         <v>40</v>
       </c>
       <c r="I26" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J26" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K26" s="3">
         <v>2</v>
@@ -1941,13 +1950,13 @@
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>25</v>
@@ -1962,10 +1971,10 @@
         <v>40</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J27" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3">
         <v>2</v>
@@ -1973,13 +1982,13 @@
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>25</v>
@@ -1994,12 +2003,44 @@
         <v>40</v>
       </c>
       <c r="I28" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J28" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:11">
+      <c r="A29" s="3">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F29" s="3">
+        <v>30</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
+        <v>20</v>
+      </c>
+      <c r="K29" s="3">
         <v>2</v>
       </c>
     </row>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -88,7 +88,7 @@
     <t>攻击范围</t>
   </si>
   <si>
-    <t>[31,0,64]</t>
+    <t>[57,0,31]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
@@ -97,16 +97,25 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>[28,0,-10]</t>
-  </si>
-  <si>
-    <t>[100,0,20]</t>
-  </si>
-  <si>
-    <t>[105,0,20]</t>
-  </si>
-  <si>
-    <t>[107,0,17]</t>
+    <t>[65,0,11]</t>
+  </si>
+  <si>
+    <t>[-40,0,46]</t>
+  </si>
+  <si>
+    <t>[0,0,-14]</t>
+  </si>
+  <si>
+    <t>[93,0,5]</t>
+  </si>
+  <si>
+    <t>[120,0,20]</t>
+  </si>
+  <si>
+    <t>[120,0,8]</t>
+  </si>
+  <si>
+    <t>[133,0,11]</t>
   </si>
   <si>
     <t>[88,0,-73]</t>
@@ -115,10 +124,16 @@
     <t>[81,0,-100]</t>
   </si>
   <si>
-    <t>[-67,0,-44]</t>
-  </si>
-  <si>
-    <t>[-80,0,-40]</t>
+    <t>[-39,0,-44]</t>
+  </si>
+  <si>
+    <t>[4,0,-45]</t>
+  </si>
+  <si>
+    <t>[24,0,52]</t>
+  </si>
+  <si>
+    <t>[0,-76,0]</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1207,7 +1222,8 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="3">
-        <v>1</v>
+        <f t="shared" ref="A4:A14" si="0">ROW()</f>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1242,7 +1258,8 @@
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1262,7 +1279,6 @@
       <c r="G5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3">
         <v>10</v>
       </c>
@@ -1275,7 +1291,8 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1295,7 +1312,6 @@
       <c r="G6" s="3">
         <v>15</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1308,7 +1324,8 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="3">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1328,7 +1345,6 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" s="3">
         <v>10</v>
       </c>
@@ -1341,7 +1357,8 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="3">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1373,7 +1390,8 @@
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="3">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1388,12 +1406,11 @@
         <v>1005</v>
       </c>
       <c r="F9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>15</v>
+      </c>
       <c r="I9" s="3">
         <v>10</v>
       </c>
@@ -1406,7 +1423,8 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="3">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -1421,7 +1439,7 @@
         <v>1005</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
         <v>20</v>
@@ -1438,7 +1456,8 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="3">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1453,7 +1472,7 @@
         <v>1005</v>
       </c>
       <c r="F11" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
         <v>20</v>
@@ -1470,13 +1489,14 @@
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="3">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -1485,10 +1505,10 @@
         <v>1005</v>
       </c>
       <c r="F12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
@@ -1502,13 +1522,14 @@
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="3">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -1517,10 +1538,10 @@
         <v>1005</v>
       </c>
       <c r="F13" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I13" s="3">
         <v>10</v>
@@ -1534,7 +1555,8 @@
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="3">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1549,13 +1571,13 @@
         <v>1005</v>
       </c>
       <c r="F14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>10</v>
@@ -1566,13 +1588,14 @@
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="3">
-        <v>12</v>
+        <f>ROW()</f>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>25</v>
@@ -1581,13 +1604,13 @@
         <v>1005</v>
       </c>
       <c r="F15" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3">
         <v>10</v>
@@ -1596,9 +1619,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:11">
+    <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="3">
-        <v>13</v>
+        <f>ROW()</f>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -1613,13 +1637,13 @@
         <v>1005</v>
       </c>
       <c r="F16" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J16" s="3">
         <v>10</v>
@@ -1630,7 +1654,8 @@
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="3">
-        <v>14</v>
+        <f t="shared" ref="A17:A20" si="1">ROW()</f>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1645,13 +1670,13 @@
         <v>1005</v>
       </c>
       <c r="F17" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J17" s="3">
         <v>10</v>
@@ -1662,13 +1687,14 @@
     </row>
     <row r="18" customHeight="1" spans="1:11">
       <c r="A18" s="3">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -1677,13 +1703,13 @@
         <v>1005</v>
       </c>
       <c r="F18" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3">
         <v>30</v>
       </c>
       <c r="I18" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J18" s="3">
         <v>10</v>
@@ -1694,22 +1720,23 @@
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="3">
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F19" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G19" s="3">
         <v>30</v>
@@ -1724,30 +1751,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:11">
+    <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="3">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F20" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G20" s="3">
         <v>30</v>
       </c>
       <c r="I20" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3">
         <v>10</v>
@@ -1758,7 +1786,8 @@
     </row>
     <row r="21" customHeight="1" spans="1:11">
       <c r="A21" s="3">
-        <v>18</v>
+        <f t="shared" ref="A21:A27" si="2">ROW()</f>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -1770,16 +1799,16 @@
         <v>25</v>
       </c>
       <c r="E21" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F21" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3">
         <v>30</v>
       </c>
       <c r="I21" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3">
         <v>10</v>
@@ -1790,28 +1819,29 @@
     </row>
     <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="3">
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="3">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F22" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G22" s="3">
         <v>30</v>
       </c>
       <c r="I22" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>10</v>
@@ -1822,28 +1852,29 @@
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="3">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="3">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F23" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G23" s="3">
         <v>30</v>
       </c>
       <c r="I23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J23" s="3">
         <v>10</v>
@@ -1852,105 +1883,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:11">
+    <row r="24" ht="17" customHeight="1" spans="1:11">
       <c r="A24" s="3">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F24" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G24" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I24" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="3">
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F25" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G25" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I25" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="3">
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="3">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F26" s="3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G26" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I26" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J26" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="3">
-        <v>24</v>
+        <f>ROW()</f>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -1962,27 +1997,28 @@
         <v>25</v>
       </c>
       <c r="E27" s="3">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F27" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G27" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I27" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J27" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="3">
-        <v>25</v>
+        <f>ROW()</f>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -1994,27 +2030,28 @@
         <v>25</v>
       </c>
       <c r="E28" s="3">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F28" s="3">
+        <v>22</v>
+      </c>
+      <c r="G28" s="3">
         <v>30</v>
       </c>
-      <c r="G28" s="3">
-        <v>40</v>
-      </c>
       <c r="I28" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J28" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="3">
-        <v>25</v>
+        <f t="shared" ref="A29:A38" si="3">ROW()</f>
+        <v>29</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -2026,22 +2063,517 @@
         <v>25</v>
       </c>
       <c r="E29" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F29" s="3">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="17" customHeight="1" spans="1:11">
+      <c r="A30" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F30" s="3">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3">
+        <v>30</v>
+      </c>
+      <c r="I30" s="3">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3">
+        <v>10</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:11">
+      <c r="A31" s="3">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F31" s="3">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3">
+        <v>30</v>
+      </c>
+      <c r="I31" s="3">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:11">
+      <c r="A32" s="3">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="3">
         <v>1007</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F32" s="3">
+        <v>16</v>
+      </c>
+      <c r="G32" s="3">
         <v>30</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:11">
+      <c r="A33" s="3">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F33" s="3">
+        <v>18</v>
+      </c>
+      <c r="G33" s="3">
+        <v>30</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:11">
+      <c r="A34" s="3">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F34" s="3">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3">
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
+        <v>10</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="17" customHeight="1" spans="1:11">
+      <c r="A35" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F35" s="3">
+        <v>28</v>
+      </c>
+      <c r="G35" s="3">
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:11">
+      <c r="A36" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F36" s="3">
+        <v>30</v>
+      </c>
+      <c r="G36" s="3">
+        <v>30</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:11">
+      <c r="A37" s="3">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F37" s="3">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3">
+        <v>30</v>
+      </c>
+      <c r="I37" s="3">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:11">
+      <c r="A38" s="3">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F38" s="3">
+        <v>35</v>
+      </c>
+      <c r="G38" s="3">
+        <v>30</v>
+      </c>
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
+        <v>10</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:11">
+      <c r="A39" s="3">
+        <f t="shared" ref="A39:A44" si="4">ROW()</f>
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F39" s="3">
+        <v>20</v>
+      </c>
+      <c r="G39" s="3">
         <v>40</v>
       </c>
-      <c r="I29" s="3">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I39" s="3">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3">
         <v>20</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K39" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:11">
+      <c r="A40" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F40" s="3">
+        <v>22</v>
+      </c>
+      <c r="G40" s="3">
+        <v>40</v>
+      </c>
+      <c r="I40" s="3">
+        <v>10</v>
+      </c>
+      <c r="J40" s="3">
+        <v>20</v>
+      </c>
+      <c r="K40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:11">
+      <c r="A41" s="3">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F41" s="3">
+        <v>25</v>
+      </c>
+      <c r="G41" s="3">
+        <v>40</v>
+      </c>
+      <c r="I41" s="3">
+        <v>10</v>
+      </c>
+      <c r="J41" s="3">
+        <v>20</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:11">
+      <c r="A42" s="3">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F42" s="3">
+        <v>28</v>
+      </c>
+      <c r="G42" s="3">
+        <v>40</v>
+      </c>
+      <c r="I42" s="3">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:11">
+      <c r="A43" s="3">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F43" s="3">
+        <v>30</v>
+      </c>
+      <c r="G43" s="3">
+        <v>40</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3">
+        <v>20</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:11">
+      <c r="A44" s="3">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>999999</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SERVER/Common/Data/excel/SpawnDefine.xlsx
+++ b/SERVER/Common/Data/excel/SpawnDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -1096,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1279,6 +1279,9 @@
       <c r="G5" s="3">
         <v>10</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="3">
         <v>10</v>
       </c>
@@ -1312,6 +1315,9 @@
       <c r="G6" s="3">
         <v>15</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1345,6 +1351,9 @@
       <c r="G7" s="3">
         <v>20</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="3">
         <v>10</v>
       </c>
@@ -1378,6 +1387,9 @@
       <c r="G8" s="3">
         <v>20</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I8" s="3">
         <v>10</v>
       </c>
@@ -1411,6 +1423,9 @@
       <c r="G9" s="3">
         <v>15</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I9" s="3">
         <v>10</v>
       </c>
@@ -1443,6 +1458,9 @@
       </c>
       <c r="G10" s="3">
         <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I10" s="3">
         <v>10</v>
@@ -1477,6 +1495,9 @@
       <c r="G11" s="3">
         <v>20</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="3">
         <v>10</v>
       </c>
@@ -1510,6 +1531,9 @@
       <c r="G12" s="3">
         <v>20</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="3">
         <v>10</v>
       </c>
@@ -1543,6 +1567,9 @@
       <c r="G13" s="3">
         <v>20</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I13" s="3">
         <v>10</v>
       </c>
@@ -1576,6 +1603,9 @@
       <c r="G14" s="3">
         <v>20</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I14" s="3">
         <v>10</v>
       </c>
@@ -1609,6 +1639,9 @@
       <c r="G15" s="3">
         <v>20</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I15" s="3">
         <v>10</v>
       </c>
@@ -1642,6 +1675,9 @@
       <c r="G16" s="3">
         <v>20</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I16" s="3">
         <v>10</v>
       </c>
@@ -1675,6 +1711,9 @@
       <c r="G17" s="3">
         <v>20</v>
       </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I17" s="3">
         <v>10</v>
       </c>
@@ -1685,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:11">
+    <row r="18" ht="16" customHeight="1" spans="1:11">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1707,6 +1746,9 @@
       </c>
       <c r="G18" s="3">
         <v>30</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I18" s="3">
         <v>10</v>
@@ -1741,6 +1783,9 @@
       <c r="G19" s="3">
         <v>30</v>
       </c>
+      <c r="H19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I19" s="3">
         <v>10</v>
       </c>
@@ -1774,6 +1819,9 @@
       <c r="G20" s="3">
         <v>30</v>
       </c>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I20" s="3">
         <v>2</v>
       </c>
@@ -1807,6 +1855,9 @@
       <c r="G21" s="3">
         <v>30</v>
       </c>
+      <c r="H21" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I21" s="3">
         <v>5</v>
       </c>
@@ -1840,6 +1891,9 @@
       <c r="G22" s="3">
         <v>30</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I22" s="3">
         <v>5</v>
       </c>
@@ -1873,6 +1927,9 @@
       <c r="G23" s="3">
         <v>30</v>
       </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I23" s="3">
         <v>5</v>
       </c>
@@ -1906,6 +1963,9 @@
       <c r="G24" s="3">
         <v>30</v>
       </c>
+      <c r="H24" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I24" s="3">
         <v>5</v>
       </c>
@@ -1938,6 +1998,9 @@
       </c>
       <c r="G25" s="3">
         <v>30</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I25" s="3">
         <v>5</v>
@@ -1972,6 +2035,9 @@
       <c r="G26" s="3">
         <v>30</v>
       </c>
+      <c r="H26" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I26" s="3">
         <v>5</v>
       </c>
@@ -2005,6 +2071,9 @@
       <c r="G27" s="3">
         <v>30</v>
       </c>
+      <c r="H27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I27" s="3">
         <v>5</v>
       </c>
@@ -2037,6 +2106,9 @@
       </c>
       <c r="G28" s="3">
         <v>30</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I28" s="3">
         <v>5</v>
